--- a/2021-04-12to04-16 (A5) C53517 SoftMARS/02_CASimportExport/11_v01_PracticeCharacterizations PLACE HOLDER.xlsx
+++ b/2021-04-12to04-16 (A5) C53517 SoftMARS/02_CASimportExport/11_v01_PracticeCharacterizations PLACE HOLDER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2021-05-02to05-08 (A5) C53505 Rootcloud3\02_CASimportExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-04-12to04-16 (A5) C53517 SoftMARS\02_CASimportExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CECCBF-1B48-44A8-9C81-BCE138D1906C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{921286F7-2E2D-4070-B22A-B49DBEA2AD23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staged Roll-Up" sheetId="2" r:id="rId1"/>
@@ -281,7 +281,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1575">
+  <dxfs count="1582">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF71C165"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFAA61A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB11116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB11116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -17232,8 +17306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17568,7 +17642,7 @@
         <v>34</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>34</v>
@@ -17703,7 +17777,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>34</v>
@@ -17975,7 +18049,7 @@
         <v>34</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>34</v>
@@ -18078,7 +18152,7 @@
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -18191,7 +18265,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
@@ -18467,29 +18541,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1574" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="1581" priority="281" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1573" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="1580" priority="282" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1572" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="1579" priority="283" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1571" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="1578" priority="284" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1570" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="1577" priority="285" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1569" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="1576" priority="286" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1568" priority="280">
+    <cfRule type="containsBlanks" dxfId="1575" priority="287">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:T5">
+  <conditionalFormatting sqref="C5:K5 M5:T5">
+    <cfRule type="cellIs" dxfId="279" priority="274" operator="equal">
+      <formula>"NY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="275" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="276" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="277" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="278" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="279" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="273" priority="280">
+      <formula>LEN(TRIM(C5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="272" priority="267" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18509,10 +18606,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="266" priority="273">
-      <formula>LEN(TRIM(C5))=0</formula>
+      <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="H6:I6">
     <cfRule type="cellIs" dxfId="265" priority="260" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18532,10 +18629,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="259" priority="266">
-      <formula>LEN(TRIM(D6))=0</formula>
+      <formula>LEN(TRIM(H6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+  <conditionalFormatting sqref="L5:L7">
     <cfRule type="cellIs" dxfId="258" priority="253" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18555,10 +18652,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="252" priority="259">
-      <formula>LEN(TRIM(H6))=0</formula>
+      <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L7">
+  <conditionalFormatting sqref="N6">
     <cfRule type="cellIs" dxfId="251" priority="246" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18578,10 +18675,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="245" priority="252">
-      <formula>LEN(TRIM(L6))=0</formula>
+      <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
+  <conditionalFormatting sqref="T6">
     <cfRule type="cellIs" dxfId="244" priority="239" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18601,10 +18698,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="238" priority="245">
-      <formula>LEN(TRIM(N6))=0</formula>
+      <formula>LEN(TRIM(T6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6">
+  <conditionalFormatting sqref="B9:T9">
     <cfRule type="cellIs" dxfId="237" priority="232" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18624,10 +18721,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="231" priority="238">
-      <formula>LEN(TRIM(T6))=0</formula>
+      <formula>LEN(TRIM(B9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:T10">
+  <conditionalFormatting sqref="B10:T10">
     <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18647,10 +18744,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="224" priority="231">
-      <formula>LEN(TRIM(B9))=0</formula>
+      <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C14">
+  <conditionalFormatting sqref="C11:F11">
     <cfRule type="cellIs" dxfId="223" priority="218" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18673,7 +18770,7 @@
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D13">
+  <conditionalFormatting sqref="C12:D12">
     <cfRule type="cellIs" dxfId="216" priority="211" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18693,10 +18790,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="210" priority="217">
-      <formula>LEN(TRIM(D11))=0</formula>
+      <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="C13:D13">
     <cfRule type="cellIs" dxfId="209" priority="204" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18716,10 +18813,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="203" priority="210">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(C13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="202" priority="197" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18739,10 +18836,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="196" priority="203">
-      <formula>LEN(TRIM(F11))=0</formula>
+      <formula>LEN(TRIM(C14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="195" priority="190" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18762,10 +18859,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="189" priority="196">
-      <formula>LEN(TRIM(H11))=0</formula>
+      <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I14">
+  <conditionalFormatting sqref="H11:I12">
     <cfRule type="cellIs" dxfId="188" priority="183" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18785,33 +18882,33 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="182" priority="189">
-      <formula>LEN(TRIM(I11))=0</formula>
+      <formula>LEN(TRIM(H11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="cellIs" dxfId="181" priority="176" operator="equal">
+      <formula>"NY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="177" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="180" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="175" priority="182">
+      <formula>LEN(TRIM(I13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="181" priority="176" operator="equal">
-      <formula>"NY"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="177" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="179" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="180" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
-      <formula>"NC"</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="175" priority="182">
-      <formula>LEN(TRIM(K11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:N14">
     <cfRule type="cellIs" dxfId="174" priority="169" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18831,10 +18928,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="168" priority="175">
-      <formula>LEN(TRIM(M11))=0</formula>
+      <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:Q12">
+  <conditionalFormatting sqref="M11:Q12">
     <cfRule type="cellIs" dxfId="167" priority="162" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18854,10 +18951,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="161" priority="168">
-      <formula>LEN(TRIM(O11))=0</formula>
+      <formula>LEN(TRIM(M11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="M13:N14">
     <cfRule type="cellIs" dxfId="160" priority="155" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18877,10 +18974,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="154" priority="161">
-      <formula>LEN(TRIM(N15))=0</formula>
+      <formula>LEN(TRIM(M13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="N15:N16">
     <cfRule type="cellIs" dxfId="153" priority="148" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -18900,7 +18997,7 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="147" priority="154">
-      <formula>LEN(TRIM(N16))=0</formula>
+      <formula>LEN(TRIM(N15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q14">
@@ -19133,7 +19230,7 @@
       <formula>LEN(TRIM(N21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:T19">
+  <conditionalFormatting sqref="Q19:S22">
     <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -19156,7 +19253,7 @@
       <formula>LEN(TRIM(Q19))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:S22">
+  <conditionalFormatting sqref="Q23:Q24">
     <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -19176,10 +19273,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="63" priority="70">
-      <formula>LEN(TRIM(Q20))=0</formula>
+      <formula>LEN(TRIM(Q23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q24">
+  <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -19199,10 +19296,10 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="56" priority="63">
-      <formula>LEN(TRIM(Q23))=0</formula>
+      <formula>LEN(TRIM(S23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  <conditionalFormatting sqref="T19">
     <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
@@ -19222,7 +19319,7 @@
       <formula>"NC"</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="49" priority="56">
-      <formula>LEN(TRIM(S23))=0</formula>
+      <formula>LEN(TRIM(T19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
@@ -19387,7 +19484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26:I30 Q22:Q24 T5:T6 C11:C14 B18:B22 O5:S5 D5:D6 H6:I6 L5:L7 D12:D13 F12 I11:I14 B10:J10 D11:F11 H11:H12 K10:K11 L10:T10 O12:P12 N5:N6 Q12:Q14 N14:N16 S11:T11 D18:T18 E19:N19 G20:M20 K23:K24 H21:L21 L23 S22:S23 B32 F26 I32:I34 L26 B26:B27 N20:N21 Q19:T19 R22 B5:C5 E5:K5 M5 B9:T9 M14 M11:N13 O11:Q11 I22:L22 I23:J23 Q20:S21 N26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26:I30 Q22:Q24 T5:T6 K10:K11 B18:B22 O5:S5 D5:D6 H6:I6 L6:L7 L10:T10 F11:F12 I12:I14 C11:E11 C13:C14 H12 M12:P12 D13 M14 N5:N6 Q12:Q14 N14:N16 S11:T11 D18:T18 E19:N19 G20:M20 K23:K24 H21:L21 L23 Q19:T19 B32 F26 I32:I34 L26 B26:B27 I23:J23 N20:N21 R22 B5:C5 E5:M5 B9:T9 B10:J10 C12:D12 H11:I11 M11:Q11 M13:N13 I22:L22 S22:S23 Q20:S21 N26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NY,DM,PM,LM,FM,NC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19463,266 +19560,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F513751AC33344AB32CFD2920EFE649" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="683516f7d70434a0e4dbd6c476be8d5b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72e3a154-4955-46c3-9573-e9dec3e1f195" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf4a15c6a1eec5dbba94230cc6a50510" ns2:_="" ns3:_="">
-    <xsd:import namespace="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <xsd:import namespace="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72e3a154-4955-46c3-9573-e9dec3e1f195" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ec500478-62e0-46fc-87f1-cfa988e486b4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD69656C-0B0C-4BA2-A249-5772709798D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9041CDF8-3AC5-4794-A6B8-BD8569BD34EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D0B44E-E089-474E-B72E-1BD28410F1EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>